--- a/TESTCASES_DIFFERENTIATION.xlsx
+++ b/TESTCASES_DIFFERENTIATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/a_n_lindelauf_student_tue_nl/Documents/Documents/TUe/Year 3/Q2/Mathematical modelling/Mathematical-Modelling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordi\Documents\GitHub\Mathematical-Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{EE87A0B8-AD9A-4CE2-B609-79C8428943CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD6FA89-F5A3-4823-BEAF-F60D1E2B2553}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8393B8F-6D5B-4BD9-8BA0-A0E75A05A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75F50C61-28CB-4ED2-901F-FE78C52DBAD5}"/>
+    <workbookView xWindow="0" yWindow="1005" windowWidth="28800" windowHeight="15435" xr2:uid="{75F50C61-28CB-4ED2-901F-FE78C52DBAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>2 + 1</t>
   </si>
@@ -48,6 +48,48 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>y + 5</t>
+  </si>
+  <si>
+    <t>x + y</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2 * x</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4 * x + 6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3 * x + 8 + 7 * x</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>a * x + b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>x - 1</t>
+  </si>
+  <si>
+    <t>x - 2 * x</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -88,7 +130,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -104,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,19 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F9F256-B036-4CF9-B217-A6DE0B7F2A35}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -440,12 +482,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
